--- a/output_low_density_straight_sort.xlsx
+++ b/output_low_density_straight_sort.xlsx
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>927</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1114</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>755</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>685</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>835</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>855</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>757</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1007</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>505</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1201</v>
+        <v>994</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>740</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1537</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="70">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>984</v>
+        <v>777</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>687</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1037</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="122">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>990</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1801</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="142">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>835</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1255</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="145">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1766</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>1101</v>
+        <v>894</v>
       </c>
     </row>
     <row r="153">
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>920</v>
+        <v>580</v>
       </c>
     </row>
     <row r="175">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>817</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>984</v>
+        <v>777</v>
       </c>
     </row>
     <row r="187">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>847</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1164</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="196">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>1315</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="201">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>507</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1164</v>
+        <v>914</v>
       </c>
     </row>
     <row r="212">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>1464</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="227">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233">
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>705</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1478</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="238">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>847</v>
+        <v>640</v>
       </c>
     </row>
     <row r="248">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>936</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="252">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
     </row>
     <row r="255">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>1329</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="265">
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272">
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>757</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="315">
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="340">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="D342" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343">
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="D363" t="n">
-        <v>757</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364">
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="D368" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="369">
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="D374" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="375">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="D375" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="376">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>984</v>
+        <v>777</v>
       </c>
     </row>
     <row r="378">
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="382">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>673</v>
+        <v>523</v>
       </c>
     </row>
     <row r="384">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="405">
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="D410" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="D426" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="427">
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="D433" t="n">
-        <v>765</v>
+        <v>560</v>
       </c>
     </row>
     <row r="434">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="D434" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="435">
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="D442" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="443">
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="D447" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="448">
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="D450" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="451">
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="D455" t="n">
-        <v>1007</v>
+        <v>857</v>
       </c>
     </row>
     <row r="456">
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="D459" t="n">
-        <v>777</v>
+        <v>570</v>
       </c>
     </row>
     <row r="460">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="476">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="D477" t="n">
-        <v>1618</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="478">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="D479" t="n">
-        <v>1201</v>
+        <v>994</v>
       </c>
     </row>
     <row r="480">
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="D480" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="481">
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="D481" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="482">
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="D491" t="n">
-        <v>992</v>
+        <v>787</v>
       </c>
     </row>
     <row r="492">
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="D492" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="493">
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="D496" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="497">
@@ -7405,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="D498" t="n">
-        <v>1234</v>
+        <v>984</v>
       </c>
     </row>
     <row r="499">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="503">
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>1207</v>
+        <v>867</v>
       </c>
     </row>
     <row r="504">
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="D507" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="508">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="D511" t="n">
-        <v>705</v>
+        <v>500</v>
       </c>
     </row>
     <row r="512">
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D521" t="n">
-        <v>785</v>
+        <v>580</v>
       </c>
     </row>
     <row r="522">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="D523" t="n">
-        <v>1414</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="524">
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="D526" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="527">
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="D527" t="n">
-        <v>992</v>
+        <v>787</v>
       </c>
     </row>
     <row r="528">
@@ -7909,7 +7909,7 @@
         <v>2</v>
       </c>
       <c r="D534" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="535">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="D536" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="537">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="D537" t="n">
-        <v>1010</v>
+        <v>860</v>
       </c>
     </row>
     <row r="538">
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="D539" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="540">
@@ -8007,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="D541" t="n">
-        <v>785</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542">
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="D558" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="559">
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="D564" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="565">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="D568" t="n">
-        <v>1271</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="569">
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="D569" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="570">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D578" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="579">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="D579" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="580">
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="D582" t="n">
-        <v>1421</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="583">
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="D583" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="584">
@@ -8665,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="D588" t="n">
-        <v>1420</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="589">
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="D593" t="n">
-        <v>1614</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="594">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="595">
@@ -8791,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="D597" t="n">
-        <v>1520</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="598">
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="D598" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="599">
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="D601" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="602">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D604" t="n">
-        <v>915</v>
+        <v>710</v>
       </c>
     </row>
     <row r="605">
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D618" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="619">
@@ -9169,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="625">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="D646" t="n">
-        <v>817</v>
+        <v>622</v>
       </c>
     </row>
     <row r="647">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D647" t="n">
-        <v>1394</v>
+        <v>787</v>
       </c>
     </row>
     <row r="648">
@@ -9533,7 +9533,7 @@
         <v>2</v>
       </c>
       <c r="D650" t="n">
-        <v>964</v>
+        <v>607</v>
       </c>
     </row>
     <row r="651">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="D655" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="656">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="D665" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="666">
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="D669" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="670">
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="D696" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="697">
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>1047</v>
+        <v>707</v>
       </c>
     </row>
     <row r="702">
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="D713" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="714">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="D715" t="n">
-        <v>894</v>
+        <v>687</v>
       </c>
     </row>
     <row r="716">
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="D719" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="720">
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="D720" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="721">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>1054</v>
+        <v>697</v>
       </c>
     </row>
     <row r="725">
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="D728" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="729">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="D733" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
     </row>
     <row r="734">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="D740" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="741">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="D745" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
     </row>
     <row r="746">
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="D747" t="n">
-        <v>657</v>
+        <v>507</v>
       </c>
     </row>
     <row r="748">
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="D765" t="n">
-        <v>1186</v>
+        <v>829</v>
       </c>
     </row>
     <row r="766">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="D766" t="n">
-        <v>1037</v>
+        <v>830</v>
       </c>
     </row>
     <row r="767">
@@ -11171,7 +11171,7 @@
         <v>2</v>
       </c>
       <c r="D767" t="n">
-        <v>845</v>
+        <v>640</v>
       </c>
     </row>
     <row r="768">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="D770" t="n">
-        <v>984</v>
+        <v>777</v>
       </c>
     </row>
     <row r="771">
@@ -11283,7 +11283,7 @@
         <v>2</v>
       </c>
       <c r="D775" t="n">
-        <v>1530</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="776">
@@ -11367,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="D781" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="782">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="D783" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="784">
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="D806" t="n">
-        <v>1214</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="807">
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="D807" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="808">
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="D826" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="827">
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="D839" t="n">
-        <v>777</v>
+        <v>570</v>
       </c>
     </row>
     <row r="840">
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="D847" t="n">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="848">
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D850" t="n">
-        <v>1117</v>
+        <v>867</v>
       </c>
     </row>
     <row r="851">
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="D855" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
     </row>
     <row r="856">
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="D864" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="865">
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="D865" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="866">
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="D866" t="n">
-        <v>1378</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="867">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="D872" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="873">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="D875" t="n">
-        <v>894</v>
+        <v>687</v>
       </c>
     </row>
     <row r="876">
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="D882" t="n">
-        <v>1654</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="883">
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="D884" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="885">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="D885" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="886">
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="D888" t="n">
-        <v>1054</v>
+        <v>904</v>
       </c>
     </row>
     <row r="889">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="D890" t="n">
-        <v>2068</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="891">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="D893" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="894">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="D899" t="n">
-        <v>775</v>
+        <v>570</v>
       </c>
     </row>
     <row r="900">
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="D907" t="n">
-        <v>1164</v>
+        <v>914</v>
       </c>
     </row>
     <row r="908">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="D910" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="911">
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="D917" t="n">
-        <v>1408</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="918">
@@ -13313,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="D920" t="n">
-        <v>1214</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="921">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="D927" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="928">
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="D929" t="n">
-        <v>957</v>
+        <v>707</v>
       </c>
     </row>
     <row r="930">
@@ -13677,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="D946" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="947">
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="D950" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="951">
@@ -13747,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="D951" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="952">
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="D954" t="n">
-        <v>1155</v>
+        <v>950</v>
       </c>
     </row>
     <row r="955">
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="D955" t="n">
-        <v>785</v>
+        <v>580</v>
       </c>
     </row>
     <row r="956">
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="D956" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="957">
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="D964" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="965">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="D968" t="n">
-        <v>972</v>
+        <v>765</v>
       </c>
     </row>
     <row r="969">
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="D969" t="n">
-        <v>865</v>
+        <v>660</v>
       </c>
     </row>
     <row r="970">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="D984" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="985">
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="D993" t="n">
-        <v>827</v>
+        <v>705</v>
       </c>
     </row>
     <row r="994">
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="D997" t="n">
-        <v>810</v>
+        <v>660</v>
       </c>
     </row>
     <row r="998">
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="D1017" t="n">
-        <v>1228</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1018">
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="D1025" t="n">
-        <v>857</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1026">
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="D1027" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1028">
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D1030" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1031">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D1034" t="n">
-        <v>914</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1035">
@@ -14937,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="D1036" t="n">
-        <v>1090</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1037">
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="D1058" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1059">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="D1064" t="n">
-        <v>1254</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1065">
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="D1078" t="n">
-        <v>1254</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1079">
@@ -15693,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="D1090" t="n">
-        <v>1527</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1091">
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="D1096" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1097">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="D1097" t="n">
-        <v>1742</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1098">
@@ -15819,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="D1099" t="n">
-        <v>1344</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1100">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="D1102" t="n">
-        <v>1202</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1103">
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="D1106" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1107">
@@ -16001,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="D1112" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1113">
@@ -16141,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="D1122" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1123">
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="D1125" t="n">
-        <v>857</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1126">
@@ -16225,7 +16225,7 @@
         <v>2</v>
       </c>
       <c r="D1128" t="n">
-        <v>1257</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1129">
@@ -16253,7 +16253,7 @@
         <v>2</v>
       </c>
       <c r="D1130" t="n">
-        <v>705</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1131">
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="D1136" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1137">
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="D1138" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1139">
@@ -16421,7 +16421,7 @@
         <v>2</v>
       </c>
       <c r="D1142" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1143">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="D1148" t="n">
-        <v>1527</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1149">
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="D1149" t="n">
-        <v>990</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1150">
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="D1154" t="n">
-        <v>1064</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1155">
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="D1159" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1160">
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="D1162" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1163">
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="D1175" t="n">
-        <v>962</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1176">
@@ -16953,7 +16953,7 @@
         <v>1</v>
       </c>
       <c r="D1180" t="n">
-        <v>772</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1181">
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="D1183" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1184">
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="D1184" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1185">
@@ -17149,7 +17149,7 @@
         <v>1</v>
       </c>
       <c r="D1194" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1195">
@@ -17177,7 +17177,7 @@
         <v>1</v>
       </c>
       <c r="D1196" t="n">
-        <v>1026</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1197">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="D1212" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1213">
@@ -17443,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="D1215" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1216">
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="D1218" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1219">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="D1233" t="n">
-        <v>955</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1234">
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="D1244" t="n">
-        <v>1205</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1245">
@@ -17877,7 +17877,7 @@
         <v>1</v>
       </c>
       <c r="D1246" t="n">
-        <v>1054</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1247">
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="D1248" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1249">
@@ -17919,7 +17919,7 @@
         <v>1</v>
       </c>
       <c r="D1249" t="n">
-        <v>994</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1250">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="D1250" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1251">
@@ -18031,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="D1257" t="n">
-        <v>1210</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1258">
@@ -18115,7 +18115,7 @@
         <v>1</v>
       </c>
       <c r="D1263" t="n">
-        <v>1535</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1264">
@@ -18129,7 +18129,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1265">
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="D1265" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1266">
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="D1268" t="n">
-        <v>805</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1269">
@@ -18255,7 +18255,7 @@
         <v>2</v>
       </c>
       <c r="D1273" t="n">
-        <v>1818</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1274">
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="D1275" t="n">
-        <v>910</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1276">
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="D1277" t="n">
-        <v>777</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1278">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="D1284" t="n">
-        <v>1387</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1285">
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="D1294" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1295">
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="D1296" t="n">
-        <v>787</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1297">
@@ -18591,7 +18591,7 @@
         <v>1</v>
       </c>
       <c r="D1297" t="n">
-        <v>1121</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1298">
@@ -18675,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="D1303" t="n">
-        <v>705</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1304">
@@ -18745,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="D1308" t="n">
-        <v>1074</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1309">
@@ -18773,7 +18773,7 @@
         <v>1</v>
       </c>
       <c r="D1310" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1311">
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="D1315" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1316">

--- a/output_low_density_straight_sort.xlsx
+++ b/output_low_density_straight_sort.xlsx
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1226</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>550</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1354</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>984</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="9">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>720</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>707</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>607</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1121</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>687</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>695</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>787</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1027</v>
+        <v>890</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>707</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>857</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="32">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>480</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>857</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>640</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1064</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>570</v>
+        <v>904</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>914</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>630</v>
+        <v>934</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>787</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="49">
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>864</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>994</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="54">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>687</v>
+        <v>757</v>
       </c>
     </row>
     <row r="59">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>994</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1837</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="64">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>560</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>787</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1197</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="70">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>914</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1064</v>
+        <v>750</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>777</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="74">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="81">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>914</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1330</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1209</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>777</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>830</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="92">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1060</v>
+        <v>997</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>570</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>550</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>477</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>1550</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>787</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>990</v>
+        <v>957</v>
       </c>
     </row>
     <row r="108">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>994</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="111">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>847</v>
+        <v>947</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1160</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1214</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="115">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>837</v>
+        <v>880</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1200</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120">
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>857</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>550</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1280</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="126">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1010</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>850</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1375</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="132">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>904</v>
+        <v>720</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>550</v>
+        <v>857</v>
       </c>
     </row>
     <row r="135">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>814</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1015</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="140">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1594</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>1550</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>630</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1050</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="145">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1214</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="D147" t="n">
-        <v>1270</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="148">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1332</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>894</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>757</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="155">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>480</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156">
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>867</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>990</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>840</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>867</v>
+        <v>950</v>
       </c>
     </row>
     <row r="164">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>580</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>910</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1437</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="171">
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>490</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>595</v>
+        <v>812</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>607</v>
+        <v>814</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1064</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>847</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="184">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>894</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>777</v>
+        <v>720</v>
       </c>
     </row>
     <row r="187">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>640</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>847</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
     </row>
     <row r="192">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>500</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1014</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>1170</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>480</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>1165</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="201">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>357</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>777</v>
+        <v>640</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1002</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="210">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>914</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>697</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="213">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>757</v>
+        <v>814</v>
       </c>
     </row>
     <row r="215">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>890</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222">
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="224">
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>657</v>
+        <v>978</v>
       </c>
     </row>
     <row r="225">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>1430</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>1257</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>695</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="229">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="231">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="234">
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>550</v>
+        <v>814</v>
       </c>
     </row>
     <row r="237">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1271</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="238">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>550</v>
+        <v>595</v>
       </c>
     </row>
     <row r="239">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="241">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="242">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>660</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="243">
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="244">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="247">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="248">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>729</v>
+        <v>857</v>
       </c>
     </row>
     <row r="249">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="250">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
     </row>
     <row r="251">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>650</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="253">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>400</v>
+        <v>810</v>
       </c>
     </row>
     <row r="255">
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="256">
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>1760</v>
+        <v>990</v>
       </c>
     </row>
     <row r="258">
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>1865</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="260">
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>857</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="261">
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262">
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>1134</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="265">
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
     </row>
     <row r="266">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>580</v>
+        <v>707</v>
       </c>
     </row>
     <row r="267">
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="268">
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="D268" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="269">
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="D270" t="n">
-        <v>1180</v>
+        <v>750</v>
       </c>
     </row>
     <row r="271">
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="272">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>800</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="273">
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>1214</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="275">
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="276">
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="277">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>775</v>
+        <v>890</v>
       </c>
     </row>
     <row r="278">
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>490</v>
+        <v>830</v>
       </c>
     </row>
     <row r="279">
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="D280" t="n">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="281">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>550</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="283">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
     </row>
     <row r="289">
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>707</v>
+        <v>850</v>
       </c>
     </row>
     <row r="306">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="308">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="316">
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="317">
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="332">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338">
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341">
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="D344" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="345">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="348">
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="349">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>687</v>
+        <v>814</v>
       </c>
     </row>
     <row r="350">
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="352">
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="D352" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="353">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="354">
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
     </row>
     <row r="356">
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="D357" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="358">
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="D361" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="362">
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="D363" t="n">
-        <v>550</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="364">
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
     </row>
     <row r="366">
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>650</v>
+        <v>890</v>
       </c>
     </row>
     <row r="368">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>757</v>
+        <v>857</v>
       </c>
     </row>
     <row r="371">
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="D373" t="n">
-        <v>800</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="374">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>777</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="378">
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>1050</v>
+        <v>740</v>
       </c>
     </row>
     <row r="380">
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="382">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>523</v>
+        <v>855</v>
       </c>
     </row>
     <row r="384">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>890</v>
+        <v>907</v>
       </c>
     </row>
     <row r="387">
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="D388" t="n">
-        <v>622</v>
+        <v>914</v>
       </c>
     </row>
     <row r="389">
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="D390" t="n">
-        <v>747</v>
+        <v>771</v>
       </c>
     </row>
     <row r="391">
@@ -5907,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="D391" t="n">
-        <v>957</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="392">
@@ -5935,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="394">
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>1271</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="397">
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="D399" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="400">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="D400" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="n">
-        <v>1111</v>
+        <v>880</v>
       </c>
     </row>
     <row r="403">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="405">
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="D405" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="406">
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="D406" t="n">
-        <v>807</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="407">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="D408" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="409">
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="D409" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="410">
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="D411" t="n">
-        <v>835</v>
+        <v>695</v>
       </c>
     </row>
     <row r="412">
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="n">
-        <v>805</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="414">
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="D416" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="417">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="D417" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="418">
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="D418" t="n">
-        <v>990</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="419">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="D419" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="420">
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="D421" t="n">
-        <v>550</v>
+        <v>814</v>
       </c>
     </row>
     <row r="422">
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="D425" t="n">
-        <v>650</v>
+        <v>605</v>
       </c>
     </row>
     <row r="426">
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="D427" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="428">
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="D428" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="429">
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="D433" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
     </row>
     <row r="434">
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="D435" t="n">
-        <v>2211</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="436">
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="D439" t="n">
-        <v>820</v>
+        <v>947</v>
       </c>
     </row>
     <row r="440">
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="n">
-        <v>980</v>
+        <v>695</v>
       </c>
     </row>
     <row r="442">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="D443" t="n">
-        <v>707</v>
+        <v>650</v>
       </c>
     </row>
     <row r="444">
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="D449" t="n">
-        <v>847</v>
+        <v>947</v>
       </c>
     </row>
     <row r="450">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="D451" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="452">
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="D453" t="n">
-        <v>902</v>
+        <v>830</v>
       </c>
     </row>
     <row r="454">
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="D455" t="n">
-        <v>857</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="456">
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="D457" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="458">
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="D459" t="n">
-        <v>570</v>
+        <v>904</v>
       </c>
     </row>
     <row r="460">
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>437</v>
+        <v>771</v>
       </c>
     </row>
     <row r="468">
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="D470" t="n">
-        <v>1821</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="471">
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="D474" t="n">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="475">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="n">
-        <v>914</v>
+        <v>650</v>
       </c>
     </row>
     <row r="476">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="D477" t="n">
-        <v>1423</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="478">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="D479" t="n">
-        <v>994</v>
+        <v>880</v>
       </c>
     </row>
     <row r="480">
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="D480" t="n">
-        <v>914</v>
+        <v>650</v>
       </c>
     </row>
     <row r="481">
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="D481" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="482">
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="D482" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="483">
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="D483" t="n">
-        <v>914</v>
+        <v>857</v>
       </c>
     </row>
     <row r="484">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="D485" t="n">
-        <v>1408</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="486">
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="D487" t="n">
-        <v>490</v>
+        <v>904</v>
       </c>
     </row>
     <row r="488">
@@ -7279,7 +7279,7 @@
         <v>2</v>
       </c>
       <c r="D489" t="n">
-        <v>1257</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="490">
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="D490" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="491">
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="D491" t="n">
-        <v>787</v>
+        <v>705</v>
       </c>
     </row>
     <row r="492">
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="D492" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="493">
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="D493" t="n">
-        <v>994</v>
+        <v>650</v>
       </c>
     </row>
     <row r="494">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="D494" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="495">
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="D496" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="497">
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="D497" t="n">
-        <v>857</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="498">
@@ -7405,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="D498" t="n">
-        <v>984</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="499">
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D499" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="500">
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="D500" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="501">
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="D501" t="n">
-        <v>1271</v>
+        <v>750</v>
       </c>
     </row>
     <row r="502">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="503">
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>867</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="504">
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="505">
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="D506" t="n">
-        <v>1064</v>
+        <v>914</v>
       </c>
     </row>
     <row r="507">
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="D508" t="n">
-        <v>1071</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="509">
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="D510" t="n">
-        <v>1102</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="511">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="D511" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
     </row>
     <row r="512">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="D512" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
     </row>
     <row r="513">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="D513" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="514">
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="D515" t="n">
-        <v>990</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="516">
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="D517" t="n">
-        <v>640</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="518">
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="D518" t="n">
-        <v>805</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="519">
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="D519" t="n">
-        <v>1180</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520">
@@ -7713,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="D520" t="n">
-        <v>1264</v>
+        <v>707</v>
       </c>
     </row>
     <row r="521">
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D521" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="522">
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="D522" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="523">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="D523" t="n">
-        <v>1164</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="524">
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="D525" t="n">
-        <v>787</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="526">
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="D526" t="n">
-        <v>580</v>
+        <v>622</v>
       </c>
     </row>
     <row r="527">
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="D527" t="n">
-        <v>787</v>
+        <v>910</v>
       </c>
     </row>
     <row r="528">
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="D529" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="530">
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="D531" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="532">
@@ -7881,7 +7881,7 @@
         <v>2</v>
       </c>
       <c r="D532" t="n">
-        <v>1180</v>
+        <v>930</v>
       </c>
     </row>
     <row r="533">
@@ -7909,7 +7909,7 @@
         <v>2</v>
       </c>
       <c r="D534" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="535">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="D536" t="n">
-        <v>867</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="537">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="D537" t="n">
-        <v>860</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="538">
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="D539" t="n">
-        <v>787</v>
+        <v>890</v>
       </c>
     </row>
     <row r="540">
@@ -8007,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="D541" t="n">
-        <v>580</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="542">
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="D542" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="543">
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="D543" t="n">
-        <v>1350</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="544">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="D545" t="n">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="546">
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="D549" t="n">
-        <v>1254</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="550">
@@ -8133,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="D550" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="551">
@@ -8147,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="D551" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="552">
@@ -8161,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="D552" t="n">
-        <v>777</v>
+        <v>904</v>
       </c>
     </row>
     <row r="553">
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="D555" t="n">
-        <v>1101</v>
+        <v>890</v>
       </c>
     </row>
     <row r="556">
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="D556" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="557">
@@ -8231,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="D557" t="n">
-        <v>920</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="558">
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="D558" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="559">
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="D560" t="n">
-        <v>1550</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="561">
@@ -8287,7 +8287,7 @@
         <v>2</v>
       </c>
       <c r="D561" t="n">
-        <v>400</v>
+        <v>595</v>
       </c>
     </row>
     <row r="562">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="D562" t="n">
-        <v>1269</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="563">
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="D563" t="n">
-        <v>560</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="564">
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="D564" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="565">
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="D565" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="566">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="D567" t="n">
-        <v>787</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="568">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="D568" t="n">
-        <v>1121</v>
+        <v>850</v>
       </c>
     </row>
     <row r="569">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="D570" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
     </row>
     <row r="571">
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="D572" t="n">
-        <v>580</v>
+        <v>857</v>
       </c>
     </row>
     <row r="573">
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="n">
-        <v>1207</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="574">
@@ -8497,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="D576" t="n">
-        <v>1074</v>
+        <v>800</v>
       </c>
     </row>
     <row r="577">
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="D577" t="n">
-        <v>994</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="578">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D578" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="579">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="D579" t="n">
-        <v>857</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="580">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="D580" t="n">
-        <v>707</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="581">
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="D582" t="n">
-        <v>1064</v>
+        <v>900</v>
       </c>
     </row>
     <row r="583">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="D587" t="n">
-        <v>657</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="588">
@@ -8665,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="D588" t="n">
-        <v>1170</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="589">
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="D589" t="n">
-        <v>740</v>
+        <v>910</v>
       </c>
     </row>
     <row r="590">
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="D591" t="n">
-        <v>857</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="592">
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="D592" t="n">
-        <v>1202</v>
+        <v>990</v>
       </c>
     </row>
     <row r="593">
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="D593" t="n">
-        <v>1407</v>
+        <v>650</v>
       </c>
     </row>
     <row r="594">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>787</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="595">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="D596" t="n">
-        <v>480</v>
+        <v>857</v>
       </c>
     </row>
     <row r="597">
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="D598" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="599">
@@ -8819,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="D599" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="600">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="D600" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="601">
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="D601" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="602">
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="D602" t="n">
-        <v>1207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="603">
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="D603" t="n">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="604">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D604" t="n">
-        <v>710</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="605">
@@ -8931,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="D607" t="n">
-        <v>580</v>
+        <v>707</v>
       </c>
     </row>
     <row r="608">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="D608" t="n">
-        <v>990</v>
+        <v>705</v>
       </c>
     </row>
     <row r="609">
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="D609" t="n">
-        <v>994</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="610">
@@ -8973,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="D610" t="n">
-        <v>1287</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="611">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="D611" t="n">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="612">
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="D612" t="n">
-        <v>777</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="613">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="D613" t="n">
-        <v>1557</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="614">
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="D614" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="615">
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="D615" t="n">
-        <v>947</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="616">
@@ -9057,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="D616" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="617">
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="D617" t="n">
-        <v>650</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="618">
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D618" t="n">
-        <v>857</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="619">
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="D620" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="621">
@@ -9169,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="625">
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="D626" t="n">
-        <v>550</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="627">
@@ -9239,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="D629" t="n">
-        <v>1540</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="630">
@@ -9295,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="D633" t="n">
-        <v>655</v>
+        <v>767</v>
       </c>
     </row>
     <row r="634">
@@ -9309,7 +9309,7 @@
         <v>2</v>
       </c>
       <c r="D634" t="n">
-        <v>1180</v>
+        <v>580</v>
       </c>
     </row>
     <row r="635">
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="D635" t="n">
-        <v>787</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="636">
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="D637" t="n">
-        <v>1207</v>
+        <v>707</v>
       </c>
     </row>
     <row r="638">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="D638" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="639">
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="D641" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="642">
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="D642" t="n">
-        <v>914</v>
+        <v>580</v>
       </c>
     </row>
     <row r="643">
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="D644" t="n">
-        <v>840</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="645">
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="D645" t="n">
-        <v>755</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="646">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="D646" t="n">
-        <v>622</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="647">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D647" t="n">
-        <v>787</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="648">
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="D648" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="649">
@@ -9561,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="D652" t="n">
-        <v>560</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="653">
@@ -9575,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="D653" t="n">
-        <v>1047</v>
+        <v>840</v>
       </c>
     </row>
     <row r="654">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="D654" t="n">
-        <v>847</v>
+        <v>697</v>
       </c>
     </row>
     <row r="655">
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="D656" t="n">
-        <v>660</v>
+        <v>949</v>
       </c>
     </row>
     <row r="657">
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="D657" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="658">
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="D658" t="n">
-        <v>650</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="659">
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="D659" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="660">
@@ -9673,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="D660" t="n">
-        <v>994</v>
+        <v>730</v>
       </c>
     </row>
     <row r="661">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="D664" t="n">
-        <v>1407</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="665">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="D665" t="n">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="666">
@@ -9757,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="D666" t="n">
-        <v>910</v>
+        <v>850</v>
       </c>
     </row>
     <row r="667">
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="D668" t="n">
-        <v>1064</v>
+        <v>500</v>
       </c>
     </row>
     <row r="669">
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="D669" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="670">
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="D671" t="n">
-        <v>655</v>
+        <v>767</v>
       </c>
     </row>
     <row r="672">
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="D673" t="n">
-        <v>1160</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="674">
@@ -9869,7 +9869,7 @@
         <v>2</v>
       </c>
       <c r="D674" t="n">
-        <v>580</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="675">
@@ -9897,7 +9897,7 @@
         <v>2</v>
       </c>
       <c r="D676" t="n">
-        <v>1045</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="677">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="D677" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
     </row>
     <row r="678">
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>914</v>
+        <v>650</v>
       </c>
     </row>
     <row r="679">
@@ -9939,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="D679" t="n">
-        <v>1064</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="680">
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="D680" t="n">
-        <v>775</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="681">
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="D682" t="n">
-        <v>990</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="683">
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="D683" t="n">
-        <v>622</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="684">
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="D685" t="n">
-        <v>990</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="686">
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="D686" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="687">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="D687" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
     </row>
     <row r="688">
@@ -10065,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="D688" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="689">
@@ -10079,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="D689" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="690">
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="n">
-        <v>767</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="691">
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="D691" t="n">
-        <v>1121</v>
+        <v>750</v>
       </c>
     </row>
     <row r="692">
@@ -10121,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="D692" t="n">
-        <v>560</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="693">
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="D695" t="n">
-        <v>1074</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="696">
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="D696" t="n">
-        <v>707</v>
+        <v>750</v>
       </c>
     </row>
     <row r="697">
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="D697" t="n">
-        <v>1060</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="698">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="D698" t="n">
-        <v>890</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="699">
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="D700" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="701">
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>707</v>
+        <v>650</v>
       </c>
     </row>
     <row r="702">
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="D702" t="n">
-        <v>580</v>
+        <v>855</v>
       </c>
     </row>
     <row r="703">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="D706" t="n">
-        <v>750</v>
+        <v>920</v>
       </c>
     </row>
     <row r="707">
@@ -10401,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="D712" t="n">
-        <v>814</v>
+        <v>857</v>
       </c>
     </row>
     <row r="713">
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="D714" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="715">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="D715" t="n">
-        <v>687</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="716">
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="D716" t="n">
-        <v>650</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="717">
@@ -10471,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="D717" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="718">
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="D720" t="n">
-        <v>500</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="721">
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="D721" t="n">
-        <v>640</v>
+        <v>830</v>
       </c>
     </row>
     <row r="722">
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="D722" t="n">
-        <v>980</v>
+        <v>695</v>
       </c>
     </row>
     <row r="723">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>1111</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="724">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>697</v>
+        <v>830</v>
       </c>
     </row>
     <row r="725">
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="D725" t="n">
-        <v>857</v>
+        <v>500</v>
       </c>
     </row>
     <row r="726">
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="D726" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="727">
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="D727" t="n">
-        <v>1060</v>
+        <v>580</v>
       </c>
     </row>
     <row r="728">
@@ -10639,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="D729" t="n">
-        <v>697</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="730">
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="D730" t="n">
-        <v>1127</v>
+        <v>990</v>
       </c>
     </row>
     <row r="731">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="D732" t="n">
-        <v>1414</v>
+        <v>914</v>
       </c>
     </row>
     <row r="733">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="D733" t="n">
-        <v>650</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="734">
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="D734" t="n">
-        <v>994</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="735">
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="D735" t="n">
-        <v>890</v>
+        <v>960</v>
       </c>
     </row>
     <row r="736">
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="D736" t="n">
-        <v>777</v>
+        <v>847</v>
       </c>
     </row>
     <row r="737">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="D737" t="n">
-        <v>1117</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="738">
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="D738" t="n">
-        <v>920</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="739">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="D740" t="n">
-        <v>490</v>
+        <v>830</v>
       </c>
     </row>
     <row r="741">
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="D741" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="742">
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="D742" t="n">
-        <v>777</v>
+        <v>847</v>
       </c>
     </row>
     <row r="743">
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="D743" t="n">
-        <v>1007</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="744">
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="D744" t="n">
-        <v>570</v>
+        <v>880</v>
       </c>
     </row>
     <row r="745">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="D745" t="n">
-        <v>580</v>
+        <v>972</v>
       </c>
     </row>
     <row r="746">
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="D747" t="n">
-        <v>507</v>
+        <v>771</v>
       </c>
     </row>
     <row r="748">
@@ -10905,7 +10905,7 @@
         <v>2</v>
       </c>
       <c r="D748" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="749">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="D749" t="n">
-        <v>1054</v>
+        <v>697</v>
       </c>
     </row>
     <row r="750">
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="D750" t="n">
-        <v>1527</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="751">
@@ -10975,7 +10975,7 @@
         <v>4</v>
       </c>
       <c r="D753" t="n">
-        <v>1615</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="754">
@@ -11017,7 +11017,7 @@
         <v>5</v>
       </c>
       <c r="D756" t="n">
-        <v>2230</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="757">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="D757" t="n">
-        <v>767</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="758">
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="D759" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="760">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="D760" t="n">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="761">
@@ -11087,7 +11087,7 @@
         <v>1</v>
       </c>
       <c r="D761" t="n">
-        <v>1520</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="762">
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="D763" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="764">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="D764" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="765">
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="D765" t="n">
-        <v>829</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="766">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="D766" t="n">
-        <v>830</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="767">
@@ -11171,7 +11171,7 @@
         <v>2</v>
       </c>
       <c r="D767" t="n">
-        <v>640</v>
+        <v>902</v>
       </c>
     </row>
     <row r="768">
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="D768" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="769">
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="D769" t="n">
-        <v>990</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="770">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="D770" t="n">
-        <v>777</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="771">
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="D771" t="n">
-        <v>707</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="772">
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="D773" t="n">
-        <v>650</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="774">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="D774" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="775">
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="D778" t="n">
-        <v>1657</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="779">
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="D780" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="781">
@@ -11367,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="D781" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="782">
@@ -11381,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="D782" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="783">
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="D783" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="784">
@@ -11423,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="D785" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="786">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="D791" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="792">
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="D792" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="793">
@@ -11535,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="D793" t="n">
-        <v>1332</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="794">
@@ -11563,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="D795" t="n">
-        <v>1277</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="796">
@@ -11577,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="D796" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="797">
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="D797" t="n">
-        <v>850</v>
+        <v>914</v>
       </c>
     </row>
     <row r="798">
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="D798" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="799">
@@ -11647,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="D801" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="802">
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="D802" t="n">
-        <v>840</v>
+        <v>857</v>
       </c>
     </row>
     <row r="803">
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="D803" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="804">
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="D804" t="n">
-        <v>500</v>
+        <v>910</v>
       </c>
     </row>
     <row r="805">
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="D805" t="n">
-        <v>865</v>
+        <v>800</v>
       </c>
     </row>
     <row r="806">
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="D806" t="n">
-        <v>1007</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="807">
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="D807" t="n">
-        <v>914</v>
+        <v>650</v>
       </c>
     </row>
     <row r="808">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="D808" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="809">
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D809" t="n">
-        <v>990</v>
+        <v>705</v>
       </c>
     </row>
     <row r="810">
@@ -11773,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="D810" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="811">
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="D811" t="n">
-        <v>687</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="812">
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="D813" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="814">
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="D814" t="n">
-        <v>500</v>
+        <v>912</v>
       </c>
     </row>
     <row r="815">
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="D815" t="n">
-        <v>1214</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="816">
@@ -11857,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="D816" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="817">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="D817" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="818">
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="D818" t="n">
-        <v>1167</v>
+        <v>790</v>
       </c>
     </row>
     <row r="819">
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="D819" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="820">
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="D823" t="n">
-        <v>855</v>
+        <v>500</v>
       </c>
     </row>
     <row r="824">
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="D824" t="n">
-        <v>787</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="825">
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="D827" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="828">
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="D828" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="829">
@@ -12053,7 +12053,7 @@
         <v>1</v>
       </c>
       <c r="D830" t="n">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="831">
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="D831" t="n">
-        <v>640</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="832">
@@ -12095,7 +12095,7 @@
         <v>2</v>
       </c>
       <c r="D833" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="834">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="D834" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="835">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="D836" t="n">
-        <v>500</v>
+        <v>910</v>
       </c>
     </row>
     <row r="837">
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="D837" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="838">
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
       <c r="D838" t="n">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="839">
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="D839" t="n">
-        <v>570</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="840">
@@ -12193,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="D840" t="n">
-        <v>1074</v>
+        <v>800</v>
       </c>
     </row>
     <row r="841">
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="D841" t="n">
-        <v>580</v>
+        <v>622</v>
       </c>
     </row>
     <row r="842">
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="D843" t="n">
-        <v>505</v>
+        <v>562</v>
       </c>
     </row>
     <row r="844">
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="D844" t="n">
-        <v>910</v>
+        <v>705</v>
       </c>
     </row>
     <row r="845">
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="D845" t="n">
-        <v>1014</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="846">
@@ -12277,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="D846" t="n">
-        <v>750</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="847">
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="D847" t="n">
-        <v>1212</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="848">
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="D848" t="n">
-        <v>867</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="849">
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D850" t="n">
-        <v>867</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="851">
@@ -12347,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="D851" t="n">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="852">
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="D852" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="853">
@@ -12375,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="D853" t="n">
-        <v>990</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="854">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D854" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="855">
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="D856" t="n">
-        <v>994</v>
+        <v>650</v>
       </c>
     </row>
     <row r="857">
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="D863" t="n">
-        <v>1281</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="864">
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="D866" t="n">
-        <v>1171</v>
+        <v>550</v>
       </c>
     </row>
     <row r="867">
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="D867" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="868">
@@ -12599,7 +12599,7 @@
         <v>2</v>
       </c>
       <c r="D869" t="n">
-        <v>980</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="870">
@@ -12627,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="D871" t="n">
-        <v>777</v>
+        <v>685</v>
       </c>
     </row>
     <row r="872">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="D872" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
     </row>
     <row r="873">
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="D873" t="n">
-        <v>1314</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="874">
@@ -12669,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="D874" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="875">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="D875" t="n">
-        <v>687</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="876">
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="D877" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="878">
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="D878" t="n">
-        <v>790</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="879">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="D879" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="880">
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="D880" t="n">
-        <v>994</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="881">
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="D881" t="n">
-        <v>914</v>
+        <v>500</v>
       </c>
     </row>
     <row r="882">
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="D882" t="n">
-        <v>1449</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="883">
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="D883" t="n">
-        <v>787</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="884">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="D885" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="886">
@@ -12837,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="D886" t="n">
-        <v>1074</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="887">
@@ -12851,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="D887" t="n">
-        <v>992</v>
+        <v>695</v>
       </c>
     </row>
     <row r="888">
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="D888" t="n">
-        <v>904</v>
+        <v>490</v>
       </c>
     </row>
     <row r="889">
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="D889" t="n">
-        <v>777</v>
+        <v>640</v>
       </c>
     </row>
     <row r="890">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="D890" t="n">
-        <v>1863</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="891">
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="D892" t="n">
-        <v>550</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="893">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="D893" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="894">
@@ -12949,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="D894" t="n">
-        <v>1127</v>
+        <v>990</v>
       </c>
     </row>
     <row r="895">
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="D895" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="896">
@@ -12977,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="D896" t="n">
-        <v>570</v>
+        <v>904</v>
       </c>
     </row>
     <row r="897">
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="D897" t="n">
-        <v>622</v>
+        <v>650</v>
       </c>
     </row>
     <row r="898">
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="D898" t="n">
-        <v>857</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="899">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="D899" t="n">
-        <v>570</v>
+        <v>695</v>
       </c>
     </row>
     <row r="900">
@@ -13033,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="D900" t="n">
-        <v>1137</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="901">
@@ -13047,7 +13047,7 @@
         <v>2</v>
       </c>
       <c r="D901" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="902">
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="D903" t="n">
-        <v>1387</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="904">
@@ -13103,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="D905" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
     </row>
     <row r="906">
@@ -13117,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="D906" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="907">
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="D907" t="n">
-        <v>914</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="908">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="D910" t="n">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="911">
@@ -13187,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="D911" t="n">
-        <v>787</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="912">
@@ -13201,7 +13201,7 @@
         <v>2</v>
       </c>
       <c r="D912" t="n">
-        <v>580</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="913">
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="D913" t="n">
-        <v>1262</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="914">
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="D914" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="915">
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="D915" t="n">
-        <v>1064</v>
+        <v>840</v>
       </c>
     </row>
     <row r="916">
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="D916" t="n">
-        <v>990</v>
+        <v>914</v>
       </c>
     </row>
     <row r="917">
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="D917" t="n">
-        <v>1201</v>
+        <v>970</v>
       </c>
     </row>
     <row r="918">
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="D918" t="n">
-        <v>490</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="919">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="D919" t="n">
-        <v>570</v>
+        <v>740</v>
       </c>
     </row>
     <row r="920">
@@ -13313,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="D920" t="n">
-        <v>1007</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="921">
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="D921" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="922">
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="D922" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="923">
@@ -13369,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="D924" t="n">
-        <v>857</v>
+        <v>900</v>
       </c>
     </row>
     <row r="925">
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="D925" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="926">
@@ -13397,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="D926" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="927">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="D927" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="928">
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="D928" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="929">
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="D929" t="n">
-        <v>707</v>
+        <v>840</v>
       </c>
     </row>
     <row r="930">
@@ -13467,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="D931" t="n">
-        <v>640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="932">
@@ -13481,7 +13481,7 @@
         <v>2</v>
       </c>
       <c r="D932" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="933">
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="D935" t="n">
-        <v>707</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="936">
@@ -13621,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="D942" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="943">
@@ -13635,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="D943" t="n">
-        <v>490</v>
+        <v>902</v>
       </c>
     </row>
     <row r="944">
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="D945" t="n">
-        <v>867</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="946">
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="D948" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
     </row>
     <row r="949">
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="D949" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="950">
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="D950" t="n">
-        <v>697</v>
+        <v>904</v>
       </c>
     </row>
     <row r="951">
@@ -13761,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="D952" t="n">
-        <v>550</v>
+        <v>814</v>
       </c>
     </row>
     <row r="953">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="D953" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="954">
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="D954" t="n">
-        <v>950</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="955">
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="D955" t="n">
-        <v>580</v>
+        <v>827</v>
       </c>
     </row>
     <row r="956">
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="D956" t="n">
-        <v>867</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="957">
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="D957" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="958">
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="D958" t="n">
-        <v>580</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="959">
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="D959" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="960">
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="D960" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="961">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="D961" t="n">
-        <v>810</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="962">
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="D962" t="n">
-        <v>707</v>
+        <v>850</v>
       </c>
     </row>
     <row r="963">
@@ -13915,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="D963" t="n">
-        <v>570</v>
+        <v>640</v>
       </c>
     </row>
     <row r="964">
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="D965" t="n">
-        <v>1531</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="966">
@@ -13957,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="D966" t="n">
-        <v>990</v>
+        <v>705</v>
       </c>
     </row>
     <row r="967">
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="D967" t="n">
-        <v>772</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="968">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="D968" t="n">
-        <v>765</v>
+        <v>847</v>
       </c>
     </row>
     <row r="969">
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="D969" t="n">
-        <v>660</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="970">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="D970" t="n">
-        <v>990</v>
+        <v>800</v>
       </c>
     </row>
     <row r="971">
@@ -14041,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="D972" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="973">
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="D973" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="974">
@@ -14069,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="D974" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="975">
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="D975" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="976">
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D976" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="977">
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="D977" t="n">
-        <v>580</v>
+        <v>623</v>
       </c>
     </row>
     <row r="978">
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="D979" t="n">
-        <v>992</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="980">
@@ -14153,7 +14153,7 @@
         <v>2</v>
       </c>
       <c r="D980" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="981">
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="D981" t="n">
-        <v>955</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="982">
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="D982" t="n">
-        <v>1595</v>
+        <v>970</v>
       </c>
     </row>
     <row r="983">
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="D983" t="n">
-        <v>1180</v>
+        <v>580</v>
       </c>
     </row>
     <row r="984">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="D984" t="n">
-        <v>580</v>
+        <v>695</v>
       </c>
     </row>
     <row r="985">
@@ -14223,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="D985" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="986">
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="D986" t="n">
-        <v>800</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="987">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="D987" t="n">
-        <v>580</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="988">
@@ -14279,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="D989" t="n">
-        <v>623</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="990">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="D990" t="n">
-        <v>1121</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="991">
@@ -14307,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="D991" t="n">
-        <v>580</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="992">
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="D992" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="993">
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="D993" t="n">
-        <v>705</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="994">
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="D994" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="995">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="D995" t="n">
-        <v>599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="996">
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="D997" t="n">
-        <v>660</v>
+        <v>746</v>
       </c>
     </row>
     <row r="998">
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="D998" t="n">
-        <v>597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="999">
@@ -14419,7 +14419,7 @@
         <v>2</v>
       </c>
       <c r="D999" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1000">
@@ -14461,7 +14461,7 @@
         <v>2</v>
       </c>
       <c r="D1002" t="n">
-        <v>622</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1003">
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="D1003" t="n">
-        <v>1117</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1004">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="D1004" t="n">
-        <v>1260</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1005">
@@ -14503,7 +14503,7 @@
         <v>1</v>
       </c>
       <c r="D1005" t="n">
-        <v>990</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1006">
@@ -14517,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="D1006" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1007">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="D1007" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1008">
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="D1008" t="n">
-        <v>1054</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1009">
@@ -14587,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="D1011" t="n">
-        <v>1461</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1012">
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="D1017" t="n">
-        <v>1021</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1018">
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="D1018" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1019">
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="D1019" t="n">
-        <v>357</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1020">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="D1021" t="n">
-        <v>607</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1022">
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="D1023" t="n">
-        <v>1111</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1024">
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="D1024" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1025">
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="D1025" t="n">
-        <v>650</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1026">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="D1026" t="n">
-        <v>734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1027">
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="D1027" t="n">
-        <v>787</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1028">
@@ -14825,7 +14825,7 @@
         <v>1</v>
       </c>
       <c r="D1028" t="n">
-        <v>894</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1029">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="D1029" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1030">
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D1030" t="n">
-        <v>857</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1031">
@@ -14867,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="D1031" t="n">
-        <v>1328</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1032">
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="D1032" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1033">
@@ -14895,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="D1033" t="n">
-        <v>800</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1034">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D1034" t="n">
-        <v>957</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1035">
@@ -14923,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="D1035" t="n">
-        <v>477</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1036">
@@ -14937,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="D1036" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1037">
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="D1037" t="n">
-        <v>787</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1038">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="D1038" t="n">
-        <v>500</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1039">
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="D1039" t="n">
-        <v>1210</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1040">
@@ -15007,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="D1041" t="n">
-        <v>867</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1042">
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="D1042" t="n">
-        <v>1060</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1043">
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="D1044" t="n">
-        <v>937</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1045">
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="D1045" t="n">
-        <v>980</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1046">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="D1046" t="n">
-        <v>800</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1047">
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="D1048" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1049">
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="D1049" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1050">
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="D1050" t="n">
-        <v>992</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1051">
@@ -15147,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="D1051" t="n">
-        <v>580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1052">
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="D1052" t="n">
-        <v>1014</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1053">
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="D1053" t="n">
-        <v>570</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1054">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="D1054" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1055">
@@ -15203,7 +15203,7 @@
         <v>2</v>
       </c>
       <c r="D1055" t="n">
-        <v>1852</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1056">
@@ -15217,7 +15217,7 @@
         <v>1</v>
       </c>
       <c r="D1056" t="n">
-        <v>677</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1057">
@@ -15231,7 +15231,7 @@
         <v>1</v>
       </c>
       <c r="D1057" t="n">
-        <v>580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1058">
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="D1058" t="n">
-        <v>867</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1059">
@@ -15259,7 +15259,7 @@
         <v>1</v>
       </c>
       <c r="D1059" t="n">
-        <v>990</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1060">
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="D1061" t="n">
-        <v>522</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1062">
@@ -15301,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="D1062" t="n">
-        <v>580</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1063">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="D1064" t="n">
-        <v>1047</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1065">
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="D1065" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1066">
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="D1067" t="n">
-        <v>1656</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1068">
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="D1068" t="n">
-        <v>657</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1069">
@@ -15413,7 +15413,7 @@
         <v>1</v>
       </c>
       <c r="D1070" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1071">
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="D1071" t="n">
-        <v>867</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1072">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="D1072" t="n">
-        <v>580</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1073">
@@ -15455,7 +15455,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="n">
-        <v>787</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1074">
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="D1074" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1075">
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="D1075" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1076">
@@ -15497,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="D1076" t="n">
-        <v>1742</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1077">
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="D1077" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1078">
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="D1079" t="n">
-        <v>787</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1080">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="D1080" t="n">
-        <v>910</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1081">
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="D1081" t="n">
-        <v>857</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1082">
@@ -15581,7 +15581,7 @@
         <v>1</v>
       </c>
       <c r="D1082" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1083">
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="D1083" t="n">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1084">
@@ -15609,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="D1084" t="n">
-        <v>904</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1085">
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="D1087" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1088">
@@ -15693,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="D1090" t="n">
-        <v>1332</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1091">
@@ -15707,7 +15707,7 @@
         <v>2</v>
       </c>
       <c r="D1091" t="n">
-        <v>640</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1092">
@@ -15721,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="D1092" t="n">
-        <v>865</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1093">
@@ -15735,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="D1093" t="n">
-        <v>640</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1094">
@@ -15749,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="D1094" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1095">
@@ -15763,7 +15763,7 @@
         <v>1</v>
       </c>
       <c r="D1095" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1096">
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="D1096" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1097">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="D1097" t="n">
-        <v>1535</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1098">
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="D1098" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1099">
@@ -15819,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="D1099" t="n">
-        <v>1137</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1100">
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="D1100" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1101">
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="D1101" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1102">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="D1102" t="n">
-        <v>857</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1103">
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="D1103" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1104">
@@ -15889,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="D1104" t="n">
-        <v>787</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1105">
@@ -15903,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="D1105" t="n">
-        <v>580</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1106">
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="D1106" t="n">
-        <v>580</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1107">
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="D1107" t="n">
-        <v>1070</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1108">
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="D1108" t="n">
-        <v>892</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1109">
@@ -15959,7 +15959,7 @@
         <v>2</v>
       </c>
       <c r="D1109" t="n">
-        <v>1690</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1110">
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="D1110" t="n">
-        <v>1014</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1111">
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="D1111" t="n">
-        <v>984</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1112">
@@ -16001,7 +16001,7 @@
         <v>1</v>
       </c>
       <c r="D1112" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1113">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="D1113" t="n">
-        <v>580</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1114">
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="D1115" t="n">
-        <v>1214</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1116">
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="D1116" t="n">
-        <v>992</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1117">
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="D1117" t="n">
-        <v>1210</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1118">
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="D1118" t="n">
-        <v>660</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1119">
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="D1120" t="n">
-        <v>570</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1121">
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="D1121" t="n">
-        <v>707</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1122">
@@ -16141,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="D1122" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1123">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="D1123" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1124">
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="D1124" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1125">
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="D1125" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1126">
@@ -16225,7 +16225,7 @@
         <v>2</v>
       </c>
       <c r="D1128" t="n">
-        <v>1107</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1129">
@@ -16253,7 +16253,7 @@
         <v>2</v>
       </c>
       <c r="D1130" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1131">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="D1131" t="n">
-        <v>787</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1132">
@@ -16281,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="D1132" t="n">
-        <v>650</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1133">
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="D1133" t="n">
-        <v>650</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1134">
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="D1134" t="n">
-        <v>800</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1135">
@@ -16323,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="D1135" t="n">
-        <v>994</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1136">
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="D1136" t="n">
-        <v>867</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1137">
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="D1137" t="n">
-        <v>1360</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1138">
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="D1138" t="n">
-        <v>660</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1139">
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="D1140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1141">
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="D1141" t="n">
-        <v>1060</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1142">
@@ -16449,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="D1144" t="n">
-        <v>1036</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1145">
@@ -16463,7 +16463,7 @@
         <v>2</v>
       </c>
       <c r="D1145" t="n">
-        <v>912</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1146">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="D1148" t="n">
-        <v>1332</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1149">
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="D1149" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1150">
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="D1150" t="n">
-        <v>1074</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1151">
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="D1152" t="n">
-        <v>1738</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1153">
@@ -16575,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="D1153" t="n">
-        <v>855</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1154">
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="D1154" t="n">
-        <v>857</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1155">
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="D1159" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1160">
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="D1162" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1163">
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="D1163" t="n">
-        <v>890</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1164">
@@ -16729,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="D1164" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1165">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="D1165" t="n">
-        <v>640</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1166">
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="D1166" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1167">
@@ -16771,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="D1167" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1168">
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="D1168" t="n">
-        <v>800</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1169">
@@ -16799,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="D1169" t="n">
-        <v>1287</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1170">
@@ -16813,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="D1170" t="n">
-        <v>890</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1171">
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="D1171" t="n">
-        <v>500</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1172">
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="D1172" t="n">
-        <v>1164</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1173">
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="D1175" t="n">
-        <v>622</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1176">
@@ -16897,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="D1176" t="n">
-        <v>1200</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1177">
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="D1177" t="n">
-        <v>1243</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1178">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="D1178" t="n">
-        <v>994</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1179">
@@ -16953,7 +16953,7 @@
         <v>1</v>
       </c>
       <c r="D1180" t="n">
-        <v>622</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1181">
@@ -16967,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="D1181" t="n">
-        <v>660</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1182">
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="D1183" t="n">
-        <v>787</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1184">
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="D1184" t="n">
-        <v>580</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1185">
@@ -17023,7 +17023,7 @@
         <v>1</v>
       </c>
       <c r="D1185" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1186">
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="D1186" t="n">
-        <v>580</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1187">
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="D1187" t="n">
-        <v>1021</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1188">
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
       <c r="D1188" t="n">
-        <v>707</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1189">
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="D1189" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1190">
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="D1190" t="n">
-        <v>500</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1191">
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="D1191" t="n">
-        <v>787</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1192">
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="D1192" t="n">
-        <v>1074</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1193">
@@ -17149,7 +17149,7 @@
         <v>1</v>
       </c>
       <c r="D1194" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1195">
@@ -17177,7 +17177,7 @@
         <v>1</v>
       </c>
       <c r="D1196" t="n">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1197">
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="D1197" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1198">
@@ -17205,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="D1198" t="n">
-        <v>810</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1199">
@@ -17219,7 +17219,7 @@
         <v>2</v>
       </c>
       <c r="D1199" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1200">
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="D1200" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1201">
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="D1201" t="n">
-        <v>517</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1202">
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="D1203" t="n">
-        <v>580</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1204">
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="D1204" t="n">
-        <v>357</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1205">
@@ -17303,7 +17303,7 @@
         <v>1</v>
       </c>
       <c r="D1205" t="n">
-        <v>914</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1206">
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="D1206" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1207">
@@ -17331,7 +17331,7 @@
         <v>1</v>
       </c>
       <c r="D1207" t="n">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1208">
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="D1208" t="n">
-        <v>1520</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1209">
@@ -17359,7 +17359,7 @@
         <v>1</v>
       </c>
       <c r="D1209" t="n">
-        <v>1074</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1210">
@@ -17373,7 +17373,7 @@
         <v>1</v>
       </c>
       <c r="D1210" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1211">
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="D1211" t="n">
-        <v>1260</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1212">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="D1212" t="n">
-        <v>787</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1213">
@@ -17415,7 +17415,7 @@
         <v>1</v>
       </c>
       <c r="D1213" t="n">
-        <v>1425</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1214">
@@ -17429,7 +17429,7 @@
         <v>2</v>
       </c>
       <c r="D1214" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1215">
@@ -17471,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="D1217" t="n">
-        <v>937</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1218">
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="D1218" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1219">
@@ -17499,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="D1219" t="n">
-        <v>1064</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1220">
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="D1220" t="n">
-        <v>994</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1221">
@@ -17527,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="D1221" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1222">
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="D1222" t="n">
-        <v>994</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1223">
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="D1223" t="n">
-        <v>580</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1224">
@@ -17569,7 +17569,7 @@
         <v>1</v>
       </c>
       <c r="D1224" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1225">
@@ -17681,7 +17681,7 @@
         <v>2</v>
       </c>
       <c r="D1232" t="n">
-        <v>1550</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1233">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="D1233" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1234">
@@ -17709,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="D1234" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1235">
@@ -17723,7 +17723,7 @@
         <v>1</v>
       </c>
       <c r="D1235" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1236">
@@ -17737,7 +17737,7 @@
         <v>1</v>
       </c>
       <c r="D1236" t="n">
-        <v>650</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1237">
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="D1237" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1238">
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="D1238" t="n">
-        <v>650</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1239">
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="D1239" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1240">
@@ -17793,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="D1240" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1241">
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="D1241" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1242">
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="n">
-        <v>550</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1243">
@@ -17835,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="D1243" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1244">
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="D1244" t="n">
-        <v>1000</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1245">
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="D1245" t="n">
-        <v>1070</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1246">
@@ -17877,7 +17877,7 @@
         <v>1</v>
       </c>
       <c r="D1246" t="n">
-        <v>847</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1247">
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="D1247" t="n">
-        <v>650</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1248">
@@ -17919,7 +17919,7 @@
         <v>1</v>
       </c>
       <c r="D1249" t="n">
-        <v>787</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1250">
@@ -17947,7 +17947,7 @@
         <v>1</v>
       </c>
       <c r="D1251" t="n">
-        <v>560</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1252">
@@ -17961,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="D1252" t="n">
-        <v>650</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1253">
@@ -17975,7 +17975,7 @@
         <v>1</v>
       </c>
       <c r="D1253" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1254">
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="D1254" t="n">
-        <v>570</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1255">
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="D1255" t="n">
-        <v>1250</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1256">
@@ -18017,7 +18017,7 @@
         <v>1</v>
       </c>
       <c r="D1256" t="n">
-        <v>994</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1257">
@@ -18031,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="D1257" t="n">
-        <v>1060</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1258">
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
       <c r="D1258" t="n">
-        <v>660</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1259">
@@ -18059,7 +18059,7 @@
         <v>1</v>
       </c>
       <c r="D1259" t="n">
-        <v>1072</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1260">
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="D1261" t="n">
-        <v>1000</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1262">
@@ -18101,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="D1262" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1263">
@@ -18115,7 +18115,7 @@
         <v>1</v>
       </c>
       <c r="D1263" t="n">
-        <v>1328</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1264">
@@ -18129,7 +18129,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="n">
-        <v>580</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1265">
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="D1265" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1266">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="D1267" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1268">
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="D1268" t="n">
-        <v>655</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1269">
@@ -18241,7 +18241,7 @@
         <v>2</v>
       </c>
       <c r="D1272" t="n">
-        <v>622</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1273">
@@ -18255,7 +18255,7 @@
         <v>2</v>
       </c>
       <c r="D1273" t="n">
-        <v>1271</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1274">
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="D1275" t="n">
-        <v>705</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1276">
@@ -18297,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="D1276" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="1277">
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="D1277" t="n">
-        <v>570</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1278">
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="D1278" t="n">
-        <v>580</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1279">
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="D1280" t="n">
-        <v>1000</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1281">
@@ -18367,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="D1281" t="n">
-        <v>1154</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1282">
@@ -18381,7 +18381,7 @@
         <v>1</v>
       </c>
       <c r="D1282" t="n">
-        <v>1060</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1283">
@@ -18395,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="D1283" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1284">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="D1284" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1285">
@@ -18423,7 +18423,7 @@
         <v>1</v>
       </c>
       <c r="D1285" t="n">
-        <v>910</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1286">
@@ -18451,7 +18451,7 @@
         <v>2</v>
       </c>
       <c r="D1287" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1288">
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="D1288" t="n">
-        <v>1022</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1289">
@@ -18479,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="D1289" t="n">
-        <v>1152</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1290">
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="D1291" t="n">
-        <v>1484</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1292">
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="D1292" t="n">
-        <v>1050</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1293">
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="D1293" t="n">
-        <v>570</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1294">
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="D1294" t="n">
-        <v>867</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1295">
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
       <c r="D1295" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1296">
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="D1296" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1297">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="D1301" t="n">
-        <v>707</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1302">
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="D1306" t="n">
-        <v>1200</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1307">
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="D1307" t="n">
-        <v>847</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1308">
@@ -18745,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="D1308" t="n">
-        <v>867</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1309">
@@ -18759,7 +18759,7 @@
         <v>1</v>
       </c>
       <c r="D1309" t="n">
-        <v>1594</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1310">
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="D1311" t="n">
-        <v>522</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1312">
@@ -18801,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="D1312" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1313">
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="D1313" t="n">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1314">
@@ -18829,7 +18829,7 @@
         <v>1</v>
       </c>
       <c r="D1314" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1315">
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="D1316" t="n">
-        <v>1057</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1317">
@@ -18871,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="D1317" t="n">
-        <v>1201</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/output_low_density_straight_sort.xlsx
+++ b/output_low_density_straight_sort.xlsx
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1097</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1064</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1732</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1111</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="12">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1397</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>490</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1021</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>812</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="22">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>914</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>650</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>890</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1330</v>
+        <v>914</v>
       </c>
     </row>
     <row r="32">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>595</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>900</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="37">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1047</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="41">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>750</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1064</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>934</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1550</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1471</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="49">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1614</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>355</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>757</v>
+        <v>814</v>
       </c>
     </row>
     <row r="59">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>880</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>2290</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="64">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1064</v>
+        <v>914</v>
       </c>
     </row>
     <row r="67">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1535</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1554</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="74">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1045</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="84">
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>1550</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1794</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="89">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>650</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1037</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>400</v>
+        <v>814</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>997</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>612</v>
+        <v>904</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>790</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102">
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>560</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="106">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>685</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1087</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>947</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1444</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1700</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="115">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>880</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="118">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>697</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="121">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>490</v>
+        <v>695</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1949</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="126">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1390</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>1190</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1537</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="131">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>720</v>
+        <v>947</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>857</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135">
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>605</v>
+        <v>812</v>
       </c>
     </row>
     <row r="138">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1200</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>1461</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1095</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="142">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1269</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>2107</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="145">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1235</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="147">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1402</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>757</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="155">
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1535</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1117</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="160">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="162">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>950</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="164">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>830</v>
+        <v>904</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>695</v>
+        <v>914</v>
       </c>
     </row>
     <row r="168">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>1873</v>
+        <v>914</v>
       </c>
     </row>
     <row r="171">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>570</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>812</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>595</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="182">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1230</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="184">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1849</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>720</v>
+        <v>947</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>1170</v>
+        <v>904</v>
       </c>
     </row>
     <row r="189">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="192">
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1057</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195">
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>570</v>
+        <v>740</v>
       </c>
     </row>
     <row r="197">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>1224</v>
+        <v>814</v>
       </c>
     </row>
     <row r="201">
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="206">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="208">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>1261</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="209">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="210">
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1264</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="212">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1037</v>
+        <v>697</v>
       </c>
     </row>
     <row r="213">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>800</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="221">
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="224">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>1594</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="226">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>1877</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="227">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>490</v>
+        <v>695</v>
       </c>
     </row>
     <row r="228">
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="232">
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="236">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>1880</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="238">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239">
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240">
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="241">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>857</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="249">
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>900</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="250">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="251">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>810</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255">
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="256">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257">
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>990</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="258">
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>2600</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="260">
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>1075</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="261">
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="263">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>1850</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="265">
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>800</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="266">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>707</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="267">
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="268">
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>480</v>
+        <v>814</v>
       </c>
     </row>
     <row r="272">
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>1520</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="273">
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>1207</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="275">
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>990</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="276">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>890</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="278">
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279">
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="D279" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280">
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="D280" t="n">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>700</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="289">
@@ -4703,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="321">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="332">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338">
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="349">
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="352">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="354">
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="356">
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="D361" t="n">
-        <v>650</v>
+        <v>814</v>
       </c>
     </row>
     <row r="362">
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="D363" t="n">
-        <v>1064</v>
+        <v>814</v>
       </c>
     </row>
     <row r="364">
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="366">
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="368">
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>857</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="371">
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>1111</v>
+        <v>904</v>
       </c>
     </row>
     <row r="378">
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>740</v>
+        <v>904</v>
       </c>
     </row>
     <row r="380">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D383" t="n">
-        <v>855</v>
+        <v>812</v>
       </c>
     </row>
     <row r="384">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>907</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="387">
@@ -5907,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="D391" t="n">
-        <v>1340</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="392">
@@ -5935,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="394">
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>1330</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="397">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="D400" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="401">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="n">
-        <v>880</v>
+        <v>904</v>
       </c>
     </row>
     <row r="403">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="D404" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="405">
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="D411" t="n">
-        <v>695</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="412">
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="D413" t="n">
-        <v>1175</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="414">
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="D418" t="n">
-        <v>1510</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="419">
@@ -6383,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="D425" t="n">
-        <v>605</v>
+        <v>812</v>
       </c>
     </row>
     <row r="426">
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="D427" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="428">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="D430" t="n">
-        <v>500</v>
+        <v>705</v>
       </c>
     </row>
     <row r="431">
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="D433" t="n">
-        <v>700</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="434">
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="D435" t="n">
-        <v>1824</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="436">
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="D441" t="n">
-        <v>695</v>
+        <v>904</v>
       </c>
     </row>
     <row r="442">
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="D443" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="444">
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="D449" t="n">
-        <v>947</v>
+        <v>904</v>
       </c>
     </row>
     <row r="450">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="D451" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="452">
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="D453" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="454">
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="D455" t="n">
-        <v>1200</v>
+        <v>914</v>
       </c>
     </row>
     <row r="456">
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="D461" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="462">
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="D470" t="n">
-        <v>2230</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="471">
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="D474" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="475">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="D475" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="476">
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="D477" t="n">
-        <v>1642</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="478">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="D479" t="n">
-        <v>880</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="480">
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="D480" t="n">
-        <v>650</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="481">
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="D481" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="482">
@@ -7195,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="D483" t="n">
-        <v>857</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="484">
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="D484" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="485">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="D485" t="n">
-        <v>1614</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="486">
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="D486" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="487">
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="D487" t="n">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="488">
@@ -7279,7 +7279,7 @@
         <v>2</v>
       </c>
       <c r="D489" t="n">
-        <v>1670</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="490">
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="D490" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="491">
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="D491" t="n">
-        <v>705</v>
+        <v>912</v>
       </c>
     </row>
     <row r="492">
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="D493" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="494">
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="D494" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="495">
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="D496" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="497">
@@ -7391,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="D497" t="n">
-        <v>1530</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="498">
@@ -7405,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="D498" t="n">
-        <v>1584</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="499">
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D499" t="n">
-        <v>697</v>
+        <v>490</v>
       </c>
     </row>
     <row r="500">
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="D501" t="n">
-        <v>750</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="502">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="503">
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>1885</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="504">
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>650</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="505">
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="D506" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="507">
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="D507" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="508">
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="D508" t="n">
-        <v>1185</v>
+        <v>978</v>
       </c>
     </row>
     <row r="509">
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="D510" t="n">
-        <v>1397</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="511">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="D511" t="n">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="512">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="D512" t="n">
-        <v>750</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="513">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="D513" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="514">
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="D515" t="n">
-        <v>1117</v>
+        <v>914</v>
       </c>
     </row>
     <row r="516">
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="D518" t="n">
-        <v>1388</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="519">
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="D519" t="n">
-        <v>580</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="520">
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="D521" t="n">
-        <v>650</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="522">
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="D522" t="n">
-        <v>912</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="523">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="D523" t="n">
-        <v>1964</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="524">
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="D525" t="n">
-        <v>1471</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="526">
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="D526" t="n">
-        <v>622</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="527">
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="D527" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="528">
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="D528" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="529">
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="D529" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="530">
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="D530" t="n">
-        <v>500</v>
+        <v>705</v>
       </c>
     </row>
     <row r="531">
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="D531" t="n">
-        <v>601</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="532">
@@ -7881,7 +7881,7 @@
         <v>2</v>
       </c>
       <c r="D532" t="n">
-        <v>930</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="533">
@@ -7909,7 +7909,7 @@
         <v>2</v>
       </c>
       <c r="D534" t="n">
-        <v>707</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="535">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="D536" t="n">
-        <v>1292</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="537">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="D537" t="n">
-        <v>1388</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="538">
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="D539" t="n">
-        <v>890</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="540">
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="D540" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="541">
@@ -8007,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="D541" t="n">
-        <v>1160</v>
+        <v>914</v>
       </c>
     </row>
     <row r="542">
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="D543" t="n">
-        <v>1060</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="544">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="D545" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="546">
@@ -8161,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="D552" t="n">
-        <v>904</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="553">
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="D555" t="n">
-        <v>890</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="556">
@@ -8287,7 +8287,7 @@
         <v>2</v>
       </c>
       <c r="D561" t="n">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="562">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="D562" t="n">
-        <v>1064</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="563">
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="D563" t="n">
-        <v>1110</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="564">
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="D564" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="565">
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="D565" t="n">
-        <v>914</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="566">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="D567" t="n">
-        <v>1264</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="568">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="D568" t="n">
-        <v>850</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="569">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="D570" t="n">
-        <v>800</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="571">
@@ -8441,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="D572" t="n">
-        <v>857</v>
+        <v>914</v>
       </c>
     </row>
     <row r="573">
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="n">
-        <v>1121</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="574">
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="D575" t="n">
-        <v>705</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="576">
@@ -8497,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="D576" t="n">
-        <v>800</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="577">
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="D577" t="n">
-        <v>1121</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="578">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D578" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="579">
@@ -8539,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="D579" t="n">
-        <v>1737</v>
+        <v>914</v>
       </c>
     </row>
     <row r="580">
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="D580" t="n">
-        <v>1397</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="581">
@@ -8581,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="D582" t="n">
-        <v>900</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="583">
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="D583" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="584">
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="D589" t="n">
-        <v>910</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="590">
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="D591" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="592">
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="D592" t="n">
-        <v>990</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="593">
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="D593" t="n">
-        <v>650</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="594">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>1085</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="595">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="D596" t="n">
-        <v>857</v>
+        <v>814</v>
       </c>
     </row>
     <row r="597">
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="D598" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="599">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="D600" t="n">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="601">
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="D602" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="603">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D604" t="n">
-        <v>1427</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="605">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="D608" t="n">
-        <v>705</v>
+        <v>914</v>
       </c>
     </row>
     <row r="609">
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="D609" t="n">
-        <v>1668</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="610">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="D611" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="612">
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="D612" t="n">
-        <v>1111</v>
+        <v>904</v>
       </c>
     </row>
     <row r="613">
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="D613" t="n">
-        <v>1328</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="614">
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="D615" t="n">
-        <v>1404</v>
+        <v>697</v>
       </c>
     </row>
     <row r="616">
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="D617" t="n">
-        <v>1190</v>
+        <v>914</v>
       </c>
     </row>
     <row r="618">
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="D618" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="619">
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="D626" t="n">
-        <v>1021</v>
+        <v>814</v>
       </c>
     </row>
     <row r="627">
@@ -9295,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="D633" t="n">
-        <v>767</v>
+        <v>976</v>
       </c>
     </row>
     <row r="634">
@@ -9309,7 +9309,7 @@
         <v>2</v>
       </c>
       <c r="D634" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
     </row>
     <row r="635">
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="D635" t="n">
-        <v>1214</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="636">
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="D640" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="641">
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="D642" t="n">
-        <v>580</v>
+        <v>957</v>
       </c>
     </row>
     <row r="643">
@@ -9449,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="D644" t="n">
-        <v>1197</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="645">
@@ -9463,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="D645" t="n">
-        <v>1064</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="646">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="D647" t="n">
-        <v>1254</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="648">
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="D648" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="649">
@@ -9575,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="D653" t="n">
-        <v>840</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="654">
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="D656" t="n">
-        <v>949</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="657">
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="D657" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="658">
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="D658" t="n">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="659">
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="D659" t="n">
-        <v>1010</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="660">
@@ -9673,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="D660" t="n">
-        <v>730</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="661">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="D664" t="n">
-        <v>1264</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="665">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="D665" t="n">
-        <v>695</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="666">
@@ -9757,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="D666" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="667">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="D667" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="668">
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="D668" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="669">
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="D669" t="n">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="670">
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="D671" t="n">
-        <v>767</v>
+        <v>976</v>
       </c>
     </row>
     <row r="672">
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="D673" t="n">
-        <v>1382</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="674">
@@ -9869,7 +9869,7 @@
         <v>2</v>
       </c>
       <c r="D674" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="675">
@@ -9897,7 +9897,7 @@
         <v>2</v>
       </c>
       <c r="D676" t="n">
-        <v>1252</v>
+        <v>750</v>
       </c>
     </row>
     <row r="677">
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="D677" t="n">
-        <v>580</v>
+        <v>914</v>
       </c>
     </row>
     <row r="678">
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="679">
@@ -9939,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="D679" t="n">
-        <v>1200</v>
+        <v>914</v>
       </c>
     </row>
     <row r="680">
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="D682" t="n">
-        <v>1097</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="683">
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="D685" t="n">
-        <v>1062</v>
+        <v>914</v>
       </c>
     </row>
     <row r="686">
@@ -10051,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="D687" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="688">
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="n">
-        <v>1180</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="691">
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="D691" t="n">
-        <v>750</v>
+        <v>957</v>
       </c>
     </row>
     <row r="692">
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="D695" t="n">
-        <v>1949</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="696">
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="D696" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="697">
@@ -10191,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="D697" t="n">
-        <v>1612</v>
+        <v>914</v>
       </c>
     </row>
     <row r="698">
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="D698" t="n">
-        <v>1524</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="699">
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="D700" t="n">
-        <v>1060</v>
+        <v>707</v>
       </c>
     </row>
     <row r="701">
@@ -10247,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="D701" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="702">
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="D702" t="n">
-        <v>855</v>
+        <v>707</v>
       </c>
     </row>
     <row r="703">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="D706" t="n">
-        <v>920</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="707">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="D715" t="n">
-        <v>1171</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="716">
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="D720" t="n">
-        <v>1121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="721">
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="D721" t="n">
-        <v>830</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="722">
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="D722" t="n">
-        <v>695</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="723">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>1451</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="724">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="725">
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="D725" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="726">
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="D726" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="727">
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="D727" t="n">
-        <v>580</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="728">
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="D728" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="729">
@@ -10639,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="D729" t="n">
-        <v>1111</v>
+        <v>904</v>
       </c>
     </row>
     <row r="730">
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="D730" t="n">
-        <v>990</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="731">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="D732" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="733">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="D733" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="734">
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="D735" t="n">
-        <v>960</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="736">
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="D736" t="n">
-        <v>847</v>
+        <v>904</v>
       </c>
     </row>
     <row r="737">
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="D738" t="n">
-        <v>1195</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="739">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="D740" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="741">
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="D741" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="742">
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="D742" t="n">
-        <v>847</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="743">
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="D744" t="n">
-        <v>880</v>
+        <v>904</v>
       </c>
     </row>
     <row r="745">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="D745" t="n">
-        <v>972</v>
+        <v>914</v>
       </c>
     </row>
     <row r="746">
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="D750" t="n">
-        <v>2662</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="751">
@@ -10975,7 +10975,7 @@
         <v>4</v>
       </c>
       <c r="D753" t="n">
-        <v>1210</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="754">
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="D759" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="760">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="D764" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="765">
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="D765" t="n">
-        <v>1890</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="766">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="D766" t="n">
-        <v>1371</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="767">
@@ -11171,7 +11171,7 @@
         <v>2</v>
       </c>
       <c r="D767" t="n">
-        <v>902</v>
+        <v>830</v>
       </c>
     </row>
     <row r="768">
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="D769" t="n">
-        <v>1035</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="770">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="D770" t="n">
-        <v>1318</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="771">
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="D771" t="n">
-        <v>1057</v>
+        <v>707</v>
       </c>
     </row>
     <row r="772">
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="D772" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="773">
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="D773" t="n">
-        <v>1461</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="774">
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="D776" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="777">
@@ -11311,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="D777" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="778">
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="D778" t="n">
-        <v>1514</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="779">
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="D780" t="n">
-        <v>914</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="781">
@@ -11381,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="D782" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="783">
@@ -11451,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="D787" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="788">
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="D792" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="793">
@@ -11563,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="D795" t="n">
-        <v>1400</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="796">
@@ -11591,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="D797" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="798">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="D800" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="801">
@@ -11647,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="D801" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="802">
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="D802" t="n">
-        <v>857</v>
+        <v>957</v>
       </c>
     </row>
     <row r="803">
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="D804" t="n">
-        <v>910</v>
+        <v>707</v>
       </c>
     </row>
     <row r="805">
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="D805" t="n">
-        <v>800</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="806">
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="D806" t="n">
-        <v>1520</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="807">
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="D807" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="808">
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="D809" t="n">
-        <v>705</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="810">
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="D814" t="n">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="815">
@@ -11843,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="D815" t="n">
-        <v>2107</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="816">
@@ -11857,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="D816" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="817">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="D817" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="818">
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="D818" t="n">
-        <v>790</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="819">
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="D819" t="n">
-        <v>650</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="820">
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="D823" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="824">
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="D824" t="n">
-        <v>1328</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="825">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="D825" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="826">
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="D828" t="n">
-        <v>1100</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="829">
@@ -12053,7 +12053,7 @@
         <v>1</v>
       </c>
       <c r="D830" t="n">
-        <v>1087</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="831">
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="D831" t="n">
-        <v>1312</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="832">
@@ -12095,7 +12095,7 @@
         <v>2</v>
       </c>
       <c r="D833" t="n">
-        <v>840</v>
+        <v>750</v>
       </c>
     </row>
     <row r="834">
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="D834" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="835">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="D836" t="n">
-        <v>910</v>
+        <v>707</v>
       </c>
     </row>
     <row r="837">
@@ -12151,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="D837" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="838">
@@ -12165,7 +12165,7 @@
         <v>1</v>
       </c>
       <c r="D838" t="n">
-        <v>695</v>
+        <v>914</v>
       </c>
     </row>
     <row r="839">
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="D839" t="n">
-        <v>1924</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="840">
@@ -12193,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="D840" t="n">
-        <v>800</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="841">
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="D841" t="n">
-        <v>622</v>
+        <v>914</v>
       </c>
     </row>
     <row r="842">
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="D844" t="n">
-        <v>705</v>
+        <v>912</v>
       </c>
     </row>
     <row r="845">
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="D847" t="n">
-        <v>1090</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="848">
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="D850" t="n">
-        <v>1007</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="851">
@@ -12375,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="D853" t="n">
-        <v>1467</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="854">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="D854" t="n">
-        <v>1121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="855">
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="D855" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="856">
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="D856" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="857">
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="D863" t="n">
-        <v>1085</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="864">
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="D864" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="865">
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="D865" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="866">
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="D866" t="n">
-        <v>550</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="867">
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="D867" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="868">
@@ -12599,7 +12599,7 @@
         <v>2</v>
       </c>
       <c r="D869" t="n">
-        <v>1451</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="870">
@@ -12627,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="D871" t="n">
-        <v>685</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="872">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="D872" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="873">
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="D873" t="n">
-        <v>1519</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="874">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="D875" t="n">
-        <v>1021</v>
+        <v>814</v>
       </c>
     </row>
     <row r="876">
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
       <c r="D878" t="n">
-        <v>1111</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="879">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="D879" t="n">
-        <v>1200</v>
+        <v>914</v>
       </c>
     </row>
     <row r="880">
@@ -12767,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="D881" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="882">
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="D882" t="n">
-        <v>1099</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="883">
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="D883" t="n">
-        <v>1264</v>
+        <v>914</v>
       </c>
     </row>
     <row r="884">
@@ -12823,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="D885" t="n">
-        <v>650</v>
+        <v>814</v>
       </c>
     </row>
     <row r="886">
@@ -12837,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="D886" t="n">
-        <v>1121</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="887">
@@ -12851,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="D887" t="n">
-        <v>695</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="888">
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="D888" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="889">
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="D889" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="890">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="D890" t="n">
-        <v>1730</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="891">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="D893" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="894">
@@ -12949,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="D894" t="n">
-        <v>990</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="895">
@@ -12963,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="D895" t="n">
-        <v>1250</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="896">
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="D897" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="898">
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="D898" t="n">
-        <v>1047</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="899">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="D899" t="n">
-        <v>695</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="900">
@@ -13047,7 +13047,7 @@
         <v>2</v>
       </c>
       <c r="D901" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="902">
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="D903" t="n">
-        <v>1371</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="904">
@@ -13103,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="D905" t="n">
-        <v>700</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="906">
@@ -13117,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="D906" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="907">
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="D907" t="n">
-        <v>1189</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="908">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="D910" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="911">
@@ -13187,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="D911" t="n">
-        <v>1471</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="912">
@@ -13201,7 +13201,7 @@
         <v>2</v>
       </c>
       <c r="D912" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="913">
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="D913" t="n">
-        <v>1376</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="914">
@@ -13229,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="D914" t="n">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="915">
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="D915" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="916">
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="D917" t="n">
-        <v>970</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="918">
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="D918" t="n">
-        <v>1197</v>
+        <v>904</v>
       </c>
     </row>
     <row r="919">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="D919" t="n">
-        <v>740</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="920">
@@ -13313,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="D920" t="n">
-        <v>1744</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="921">
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="D921" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="922">
@@ -13369,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="D924" t="n">
-        <v>900</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="925">
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="D925" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="926">
@@ -13397,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="D926" t="n">
-        <v>914</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="927">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="D927" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="928">
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="D929" t="n">
-        <v>840</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="930">
@@ -13481,7 +13481,7 @@
         <v>2</v>
       </c>
       <c r="D932" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="933">
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="D935" t="n">
-        <v>1121</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="936">
@@ -13621,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="D942" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="943">
@@ -13635,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="D943" t="n">
-        <v>902</v>
+        <v>490</v>
       </c>
     </row>
     <row r="944">
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="D945" t="n">
-        <v>1007</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="946">
@@ -13677,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="D946" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="947">
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="D948" t="n">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="949">
@@ -13747,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="D951" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="952">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="D953" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="954">
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="D954" t="n">
-        <v>1520</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="955">
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="D955" t="n">
-        <v>827</v>
+        <v>914</v>
       </c>
     </row>
     <row r="956">
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="D956" t="n">
-        <v>1140</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="957">
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="D957" t="n">
-        <v>650</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="958">
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="D958" t="n">
-        <v>1032</v>
+        <v>914</v>
       </c>
     </row>
     <row r="959">
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="D959" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="960">
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="D962" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="963">
@@ -13915,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="D963" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="964">
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="D964" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="965">
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="D965" t="n">
-        <v>1520</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="966">
@@ -13957,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="D966" t="n">
-        <v>705</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="967">
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="D967" t="n">
-        <v>1407</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="968">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="D968" t="n">
-        <v>847</v>
+        <v>904</v>
       </c>
     </row>
     <row r="969">
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="D969" t="n">
-        <v>2310</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="970">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="D970" t="n">
-        <v>800</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="971">
@@ -14041,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="D972" t="n">
-        <v>1100</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="973">
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="D973" t="n">
-        <v>1121</v>
+        <v>914</v>
       </c>
     </row>
     <row r="974">
@@ -14069,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="D974" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="975">
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="D975" t="n">
-        <v>650</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="976">
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D976" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="977">
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="D977" t="n">
-        <v>623</v>
+        <v>912</v>
       </c>
     </row>
     <row r="978">
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="D979" t="n">
-        <v>1050</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="980">
@@ -14153,7 +14153,7 @@
         <v>2</v>
       </c>
       <c r="D980" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="981">
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="D981" t="n">
-        <v>1177</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="982">
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="D982" t="n">
-        <v>970</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="983">
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="D983" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
     </row>
     <row r="984">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="D984" t="n">
-        <v>695</v>
+        <v>914</v>
       </c>
     </row>
     <row r="985">
@@ -14237,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="D986" t="n">
-        <v>1180</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="987">
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="D987" t="n">
-        <v>1007</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="988">
@@ -14279,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="D989" t="n">
-        <v>1890</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="990">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="D990" t="n">
-        <v>1328</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="991">
@@ -14307,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="D991" t="n">
-        <v>1032</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="992">
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="D993" t="n">
-        <v>1190</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="994">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="D995" t="n">
-        <v>1595</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="996">
@@ -14391,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="D997" t="n">
-        <v>746</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="998">
@@ -14461,7 +14461,7 @@
         <v>2</v>
       </c>
       <c r="D1002" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1003">
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="D1003" t="n">
-        <v>1930</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1004">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="D1004" t="n">
-        <v>1600</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1005">
@@ -14503,7 +14503,7 @@
         <v>1</v>
       </c>
       <c r="D1005" t="n">
-        <v>1962</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1006">
@@ -14517,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="D1006" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1007">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="D1007" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1008">
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="D1008" t="n">
-        <v>740</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1009">
@@ -14573,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="D1010" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1011">
@@ -14587,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="D1011" t="n">
-        <v>1328</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1012">
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="D1018" t="n">
-        <v>900</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1019">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="D1021" t="n">
-        <v>757</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1022">
@@ -14741,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="D1022" t="n">
-        <v>490</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1023">
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="D1023" t="n">
-        <v>640</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1024">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="D1026" t="n">
-        <v>1728</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1027">
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="D1027" t="n">
-        <v>957</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1028">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="D1029" t="n">
-        <v>904</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1030">
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="D1030" t="n">
-        <v>940</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1031">
@@ -14867,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="D1031" t="n">
-        <v>1471</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1032">
@@ -14895,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="D1033" t="n">
-        <v>1121</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1034">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="D1034" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1035">
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="D1037" t="n">
-        <v>1264</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1038">
@@ -14965,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="D1038" t="n">
-        <v>1121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1039">
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="D1039" t="n">
-        <v>750</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1040">
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="D1042" t="n">
-        <v>914</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1043">
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="D1044" t="n">
-        <v>1594</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1045">
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="D1045" t="n">
-        <v>695</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1046">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="D1046" t="n">
-        <v>1457</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1047">
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="D1048" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1049">
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="D1049" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1050">
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="D1050" t="n">
-        <v>1060</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1051">
@@ -15147,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="D1051" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1052">
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="D1053" t="n">
-        <v>790</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1054">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="D1054" t="n">
-        <v>1121</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1055">
@@ -15203,7 +15203,7 @@
         <v>2</v>
       </c>
       <c r="D1055" t="n">
-        <v>2430</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1056">
@@ -15231,7 +15231,7 @@
         <v>1</v>
       </c>
       <c r="D1057" t="n">
-        <v>1550</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1058">
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="D1058" t="n">
-        <v>1364</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1059">
@@ -15259,7 +15259,7 @@
         <v>1</v>
       </c>
       <c r="D1059" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1060">
@@ -15287,7 +15287,7 @@
         <v>1</v>
       </c>
       <c r="D1061" t="n">
-        <v>700</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1062">
@@ -15301,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="D1062" t="n">
-        <v>1121</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1063">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="D1063" t="n">
-        <v>355</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1064">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="D1064" t="n">
-        <v>957</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1065">
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="D1065" t="n">
-        <v>650</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1066">
@@ -15357,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="D1066" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1067">
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="D1067" t="n">
-        <v>1231</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1068">
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="D1071" t="n">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1072">
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="D1072" t="n">
-        <v>1328</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1073">
@@ -15455,7 +15455,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="n">
-        <v>1471</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1074">
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="D1075" t="n">
-        <v>814</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1076">
@@ -15497,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="D1076" t="n">
-        <v>1535</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1077">
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="D1077" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1078">
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="D1078" t="n">
-        <v>914</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1079">
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="D1079" t="n">
-        <v>1678</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1080">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="D1080" t="n">
-        <v>1117</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1081">
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="D1081" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1082">
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="D1083" t="n">
-        <v>900</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1084">
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="D1087" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1088">
@@ -15721,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="D1092" t="n">
-        <v>1140</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1093">
@@ -15735,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="D1093" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1094">
@@ -15749,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="D1094" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1095">
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="D1096" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1097">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="D1097" t="n">
-        <v>1328</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1098">
@@ -15819,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="D1099" t="n">
-        <v>1670</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1100">
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="D1101" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1102">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="D1102" t="n">
-        <v>1461</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1103">
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="D1103" t="n">
-        <v>650</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1104">
@@ -15889,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="D1104" t="n">
-        <v>1471</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1105">
@@ -15903,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="D1105" t="n">
-        <v>705</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1106">
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="D1106" t="n">
-        <v>707</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1107">
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="D1107" t="n">
-        <v>1117</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1108">
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="D1108" t="n">
-        <v>1202</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1109">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="D1113" t="n">
-        <v>705</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1114">
@@ -16043,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="D1115" t="n">
-        <v>1520</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1116">
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="D1116" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1117">
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="D1117" t="n">
-        <v>1545</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1118">
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="D1118" t="n">
-        <v>622</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1119">
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="D1120" t="n">
-        <v>640</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1121">
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="D1121" t="n">
-        <v>1414</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1122">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="D1123" t="n">
-        <v>750</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1124">
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="D1124" t="n">
-        <v>580</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1125">
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="D1125" t="n">
-        <v>1100</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1126">
@@ -16225,7 +16225,7 @@
         <v>2</v>
       </c>
       <c r="D1128" t="n">
-        <v>1197</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1129">
@@ -16253,7 +16253,7 @@
         <v>2</v>
       </c>
       <c r="D1130" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1131">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="D1131" t="n">
-        <v>705</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1132">
@@ -16281,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="D1132" t="n">
-        <v>1190</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1133">
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="D1133" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1134">
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="D1134" t="n">
-        <v>1550</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1135">
@@ -16323,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="D1135" t="n">
-        <v>890</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1136">
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="D1136" t="n">
-        <v>1875</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1137">
@@ -16351,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="D1137" t="n">
-        <v>1250</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1138">
@@ -16365,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="D1138" t="n">
-        <v>1414</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1139">
@@ -16379,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="D1139" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1140">
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="D1140" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1141">
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="D1141" t="n">
-        <v>1250</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1142">
@@ -16449,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="D1144" t="n">
-        <v>1550</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1145">
@@ -16463,7 +16463,7 @@
         <v>2</v>
       </c>
       <c r="D1145" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1146">
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="D1149" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1150">
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="D1150" t="n">
-        <v>1478</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1151">
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="D1152" t="n">
-        <v>1072</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1153">
@@ -16575,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="D1153" t="n">
-        <v>750</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1154">
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="D1155" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1156">
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="D1162" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1163">
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="D1163" t="n">
-        <v>605</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1164">
@@ -16729,7 +16729,7 @@
         <v>1</v>
       </c>
       <c r="D1164" t="n">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1165">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="D1165" t="n">
-        <v>830</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1166">
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="D1166" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1167">
@@ -16799,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="D1169" t="n">
-        <v>1847</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1170">
@@ -16813,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="D1170" t="n">
-        <v>605</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1171">
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="D1171" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1172">
@@ -16841,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="D1172" t="n">
-        <v>1407</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1173">
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="D1177" t="n">
-        <v>1507</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1178">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="D1178" t="n">
-        <v>880</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1179">
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="D1179" t="n">
-        <v>900</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1180">
@@ -16953,7 +16953,7 @@
         <v>1</v>
       </c>
       <c r="D1180" t="n">
-        <v>1387</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1181">
@@ -16967,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="D1181" t="n">
-        <v>1150</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1182">
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="D1183" t="n">
-        <v>914</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1184">
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="D1184" t="n">
-        <v>1461</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1185">
@@ -17023,7 +17023,7 @@
         <v>1</v>
       </c>
       <c r="D1185" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1186">
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="D1186" t="n">
-        <v>890</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1187">
@@ -17065,7 +17065,7 @@
         <v>1</v>
       </c>
       <c r="D1188" t="n">
-        <v>1057</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1189">
@@ -17079,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="D1189" t="n">
-        <v>500</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1190">
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="D1190" t="n">
-        <v>705</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1191">
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="D1191" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1192">
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="D1192" t="n">
-        <v>1157</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1193">
@@ -17149,7 +17149,7 @@
         <v>1</v>
       </c>
       <c r="D1194" t="n">
-        <v>650</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1195">
@@ -17177,7 +17177,7 @@
         <v>1</v>
       </c>
       <c r="D1196" t="n">
-        <v>830</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1197">
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="D1197" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1198">
@@ -17219,7 +17219,7 @@
         <v>2</v>
       </c>
       <c r="D1199" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1200">
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="D1200" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1201">
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="D1203" t="n">
-        <v>622</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1204">
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="D1204" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1205">
@@ -17303,7 +17303,7 @@
         <v>1</v>
       </c>
       <c r="D1205" t="n">
-        <v>1264</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1206">
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="D1206" t="n">
-        <v>580</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1207">
@@ -17331,7 +17331,7 @@
         <v>1</v>
       </c>
       <c r="D1207" t="n">
-        <v>840</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1208">
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="D1208" t="n">
-        <v>800</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1209">
@@ -17359,7 +17359,7 @@
         <v>1</v>
       </c>
       <c r="D1209" t="n">
-        <v>2028</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1210">
@@ -17373,7 +17373,7 @@
         <v>1</v>
       </c>
       <c r="D1210" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1211">
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="D1211" t="n">
-        <v>1164</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1212">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="D1212" t="n">
-        <v>1328</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1213">
@@ -17429,7 +17429,7 @@
         <v>2</v>
       </c>
       <c r="D1214" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1215">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="D1216" t="n">
-        <v>500</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1217">
@@ -17471,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="D1217" t="n">
-        <v>1604</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1218">
@@ -17499,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="D1219" t="n">
-        <v>1264</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1220">
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="D1220" t="n">
-        <v>1271</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1221">
@@ -17527,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="D1221" t="n">
-        <v>850</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1222">
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="D1222" t="n">
-        <v>2018</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1223">
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="D1223" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1224">
@@ -17667,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="D1231" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1232">
@@ -17681,7 +17681,7 @@
         <v>2</v>
       </c>
       <c r="D1232" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1233">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="D1233" t="n">
-        <v>806</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1234">
@@ -17709,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="D1234" t="n">
-        <v>800</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1235">
@@ -17737,7 +17737,7 @@
         <v>1</v>
       </c>
       <c r="D1236" t="n">
-        <v>1190</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1237">
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="D1237" t="n">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1238">
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="D1238" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1239">
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="D1241" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1242">
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="n">
-        <v>814</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1243">
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="D1244" t="n">
-        <v>1207</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1245">
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="D1245" t="n">
-        <v>1755</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1246">
@@ -17877,7 +17877,7 @@
         <v>1</v>
       </c>
       <c r="D1246" t="n">
-        <v>740</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1247">
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="D1247" t="n">
-        <v>1180</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1248">
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="D1248" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1249">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="D1250" t="n">
-        <v>400</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1251">
@@ -17961,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="D1252" t="n">
-        <v>1047</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1253">
@@ -17975,7 +17975,7 @@
         <v>1</v>
       </c>
       <c r="D1253" t="n">
-        <v>707</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1254">
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="D1255" t="n">
-        <v>2200</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1256">
@@ -18031,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="D1257" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1258">
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
       <c r="D1258" t="n">
-        <v>1757</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1259">
@@ -18059,7 +18059,7 @@
         <v>1</v>
       </c>
       <c r="D1259" t="n">
-        <v>1290</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1260">
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="D1261" t="n">
-        <v>1207</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1262">
@@ -18101,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="D1262" t="n">
-        <v>850</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1263">
@@ -18115,7 +18115,7 @@
         <v>1</v>
       </c>
       <c r="D1263" t="n">
-        <v>1340</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1264">
@@ -18129,7 +18129,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1265">
@@ -18143,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="D1265" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1266">
@@ -18157,7 +18157,7 @@
         <v>1</v>
       </c>
       <c r="D1266" t="n">
-        <v>914</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1267">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="D1267" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1268">
@@ -18185,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="D1268" t="n">
-        <v>972</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1269">
@@ -18241,7 +18241,7 @@
         <v>2</v>
       </c>
       <c r="D1272" t="n">
-        <v>1385</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1273">
@@ -18255,7 +18255,7 @@
         <v>2</v>
       </c>
       <c r="D1273" t="n">
-        <v>1277</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1274">
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="D1275" t="n">
-        <v>910</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1276">
@@ -18297,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="D1276" t="n">
-        <v>550</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1277">
@@ -18311,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="D1277" t="n">
-        <v>1111</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1278">
@@ -18325,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="D1278" t="n">
-        <v>1007</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1279">
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="D1280" t="n">
-        <v>1207</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1281">
@@ -18367,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="D1281" t="n">
-        <v>2540</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1282">
@@ -18381,7 +18381,7 @@
         <v>1</v>
       </c>
       <c r="D1282" t="n">
-        <v>790</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1283">
@@ -18423,7 +18423,7 @@
         <v>1</v>
       </c>
       <c r="D1285" t="n">
-        <v>1119</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1286">
@@ -18451,7 +18451,7 @@
         <v>2</v>
       </c>
       <c r="D1287" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1288">
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="D1288" t="n">
-        <v>790</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1289">
@@ -18479,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="D1289" t="n">
-        <v>950</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1290">
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="D1291" t="n">
-        <v>2152</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1292">
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="D1292" t="n">
-        <v>1101</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1293">
@@ -18563,7 +18563,7 @@
         <v>1</v>
       </c>
       <c r="D1295" t="n">
-        <v>500</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1296">
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="D1296" t="n">
-        <v>650</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1297">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="D1301" t="n">
-        <v>1190</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1302">
@@ -18675,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="D1303" t="n">
-        <v>500</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1304">
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="D1306" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1307">
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="D1307" t="n">
-        <v>740</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1308">
@@ -18745,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="D1308" t="n">
-        <v>1499</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1309">
@@ -18759,7 +18759,7 @@
         <v>1</v>
       </c>
       <c r="D1309" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1310">
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="D1311" t="n">
-        <v>700</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1312">
@@ -18801,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="D1312" t="n">
-        <v>850</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1313">
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="D1313" t="n">
-        <v>840</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1314">
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="D1315" t="n">
-        <v>707</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1316">
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="D1316" t="n">
-        <v>1297</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1317">
@@ -18871,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="D1317" t="n">
-        <v>730</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>

--- a/output_low_density_straight_sort.xlsx
+++ b/output_low_density_straight_sort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>291072</v>
+        <v>291097</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>291072</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1642</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
